--- a/openrice_settings.xlsx
+++ b/openrice_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hekal\Personal\Freelancing\Scrape_OpenRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4055B986-C141-42C7-B407-2624E9CE8F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29D9B7-B7BE-44D9-9B51-A983C27C7E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>New Restaurants</t>
   </si>
@@ -44,13 +44,37 @@
   </si>
   <si>
     <t>Restaurants Limit</t>
+  </si>
+  <si>
+    <t>Restaurant Link</t>
+  </si>
+  <si>
+    <t>Restaurant Name</t>
+  </si>
+  <si>
+    <t>Restaurant Location</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/en/hongkong/r-gold-coast-prime-rib-tuen-mun-western-r491690</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/en/hongkong/r-moo-moo-kwun-tong-western-meatless-menu-r576967</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>macau</t>
+  </si>
+  <si>
+    <t>Mikiki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +205,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +515,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -526,11 +558,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -564,6 +598,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -884,82 +919,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A3AB1F2A-438C-4A87-BA40-074994A26A23}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/openrice_settings.xlsx
+++ b/openrice_settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hekal\Personal\Freelancing\Scrape_OpenRice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oiret\Downloads\OpenRice_Scraper_v1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29D9B7-B7BE-44D9-9B51-A983C27C7E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA147485-F984-4AAC-8338-77F92C54213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openrice_settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>New Restaurants</t>
   </si>
@@ -55,19 +55,16 @@
     <t>Restaurant Location</t>
   </si>
   <si>
-    <t>https://www.openrice.com/en/hongkong/r-gold-coast-prime-rib-tuen-mun-western-r491690</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/en/hongkong/r-moo-moo-kwun-tong-western-meatless-menu-r576967</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>macau</t>
-  </si>
-  <si>
-    <t>Mikiki</t>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Kwun Tong</t>
+  </si>
+  <si>
+    <t>Causeway Bay</t>
   </si>
 </sst>
 </file>
@@ -922,26 +919,26 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -976,18 +973,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -996,34 +991,31 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A3AB1F2A-438C-4A87-BA40-074994A26A23}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/openrice_settings.xlsx
+++ b/openrice_settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oiret\Downloads\OpenRice_Scraper_v1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hekal\Personal\Freelancing\Scrape_OpenRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA147485-F984-4AAC-8338-77F92C54213E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C108B826-CBFB-41FF-A2C4-599A557CB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openrice_settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>New Restaurants</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>Causeway Bay</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/restaurants?cuisineId=6000&amp;districtId=2008&amp;what=Afternoon%20Tea</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/en/hongkong/r-calle-ocho-causeway-bay-spanish-r784924</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/restaurants/cuisine/%E6%B3%B0%E5%9C%8B%E8%8F%9C?categoryGroupId=20011</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/en/hongkong/r-1-korean-barbecue-san-po-kong-korean-korean-bbq-r765591</t>
+  </si>
+  <si>
+    <t>https://www.openrice.com/zh/hongkong/restaurants?conditionId=2013&amp;haveBookingOffer=True</t>
   </si>
 </sst>
 </file>
@@ -557,9 +572,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,29 +932,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +989,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1006,7 +1024,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -1014,8 +1035,27 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F9463500-3172-496E-8462-F627258FA6FE}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{131D0E41-7C3A-48B7-8E99-CEF2F1ACAE67}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/openrice_settings.xlsx
+++ b/openrice_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hekal\Personal\Freelancing\Scrape_OpenRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C108B826-CBFB-41FF-A2C4-599A557CB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D311F-E3CB-43B5-95E3-C15035867AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>New Restaurants</t>
   </si>
@@ -55,31 +55,10 @@
     <t>Restaurant Location</t>
   </si>
   <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Kwun Tong</t>
-  </si>
-  <si>
-    <t>Causeway Bay</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/restaurants?cuisineId=6000&amp;districtId=2008&amp;what=Afternoon%20Tea</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/en/hongkong/r-calle-ocho-causeway-bay-spanish-r784924</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/restaurants/cuisine/%E6%B3%B0%E5%9C%8B%E8%8F%9C?categoryGroupId=20011</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/en/hongkong/r-1-korean-barbecue-san-po-kong-korean-korean-bbq-r765591</t>
-  </si>
-  <si>
-    <t>https://www.openrice.com/zh/hongkong/restaurants?conditionId=2013&amp;haveBookingOffer=True</t>
+    <t>Tsim Sha Tsui</t>
+  </si>
+  <si>
+    <t>Café</t>
   </si>
 </sst>
 </file>
@@ -572,10 +551,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,14 +970,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1015,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1025,37 +1003,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{F9463500-3172-496E-8462-F627258FA6FE}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{131D0E41-7C3A-48B7-8E99-CEF2F1ACAE67}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/openrice_settings.xlsx
+++ b/openrice_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hekal\Personal\Freelancing\Scrape_OpenRice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D311F-E3CB-43B5-95E3-C15035867AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3734E20-B254-4999-9348-E4837ACB9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>New Restaurants</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Restaurant Location</t>
-  </si>
-  <si>
-    <t>Tsim Sha Tsui</t>
-  </si>
-  <si>
-    <t>Café</t>
   </si>
 </sst>
 </file>
@@ -551,11 +545,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -971,14 +964,8 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -993,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
